--- a/regex.xlsx
+++ b/regex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950"/>
+    <workbookView windowWidth="14400" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,26 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>phone_number</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF00A67D"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>^0\\d{9,10}$</t>
-    </r>
+    <t>^0\\d{9,10}$</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t xml:space="preserve">^(?=.*[A-Z])(?!.*[\s])([A-Za-z]){8,99}$
+    <t xml:space="preserve">^(?=.*[A-Z])[A-Za-z\d\W_]{8,99}$
 </t>
   </si>
   <si>
@@ -53,13 +48,16 @@
     <t>middle_name</t>
   </si>
   <si>
+    <t>^(?:[a-zA-ZÀ-ỹ]+(?: [a-zA-ZÀ-ỹ]+)*)?$</t>
+  </si>
+  <si>
     <t>last_name</t>
   </si>
   <si>
     <t>DateOfBirth</t>
   </si>
   <si>
-    <t>^(?:19|20)\d{2}-(?:0[1-9]|1[0-2])-(?:0[1-9]|[12]\d|3[01])$</t>
+    <t>^(?:19|20|21)\d{2}-(?:0[1-9]|1[0-2])-(?:0[1-9]|[12]\d|3[01])$</t>
   </si>
   <si>
     <t>sex</t>
@@ -87,6 +85,50 @@
   </si>
   <si>
     <t>length</t>
+  </si>
+  <si>
+    <t>^[1-9]\d*$</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>id_sender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^[1-9]\d*$
+</t>
+  </si>
+  <si>
+    <t>id_receiver</t>
+  </si>
+  <si>
+    <t>collection_money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\d+$
+</t>
+  </si>
+  <si>
+    <t>transportation_cost</t>
+  </si>
+  <si>
+    <t>^\d+$</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>^(1(\.5)?|2(\.5)?|3(\.5)?|4(\.5)?|5)$</t>
+  </si>
+  <si>
+    <t>văn phòng|1|lê văn hiến|hoà quý|ngũ hành sơn|đà nẵng|095439938892.</t>
   </si>
 </sst>
 </file>
@@ -99,7 +141,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +153,11 @@
       <sz val="10.5"/>
       <color rgb="FF00A67D"/>
       <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -578,137 +625,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,6 +764,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1251,109 +1301,184 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="58.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="18.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="72.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="29" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="29" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" ht="30" spans="1:2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
